--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H2">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I2">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J2">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>32.48402131759911</v>
+        <v>209.9238165581491</v>
       </c>
       <c r="R2">
-        <v>292.356191858392</v>
+        <v>1889.314349023342</v>
       </c>
       <c r="S2">
-        <v>0.02490553479650698</v>
+        <v>0.1552205722690423</v>
       </c>
       <c r="T2">
-        <v>0.02490553479650698</v>
+        <v>0.1552205722690424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H3">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I3">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J3">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>38.32276724920177</v>
+        <v>70.41445640564712</v>
       </c>
       <c r="R3">
-        <v>344.904905242816</v>
+        <v>633.730107650824</v>
       </c>
       <c r="S3">
-        <v>0.02938210771048639</v>
+        <v>0.05206542258281838</v>
       </c>
       <c r="T3">
-        <v>0.02938210771048639</v>
+        <v>0.05206542258281839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H4">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I4">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J4">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>4.905069483586667</v>
+        <v>12.07156287947011</v>
       </c>
       <c r="R4">
-        <v>44.14562535228</v>
+        <v>108.644065915231</v>
       </c>
       <c r="S4">
-        <v>0.003760722156544298</v>
+        <v>0.008925880488715522</v>
       </c>
       <c r="T4">
-        <v>0.003760722156544297</v>
+        <v>0.008925880488715522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H5">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I5">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J5">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>4.068981564067555</v>
+        <v>3.810204736418</v>
       </c>
       <c r="R5">
-        <v>36.620834076608</v>
+        <v>34.291842627762</v>
       </c>
       <c r="S5">
-        <v>0.00311969263101444</v>
+        <v>0.002817318060169667</v>
       </c>
       <c r="T5">
-        <v>0.003119692631014439</v>
+        <v>0.002817318060169667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H6">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I6">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J6">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>175.3113612730187</v>
+        <v>230.8725636874765</v>
       </c>
       <c r="R6">
-        <v>1577.802251457168</v>
+        <v>2077.853073187289</v>
       </c>
       <c r="S6">
-        <v>0.1344114130981268</v>
+        <v>0.1707103655237917</v>
       </c>
       <c r="T6">
-        <v>0.1344114130981268</v>
+        <v>0.1707103655237918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H7">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I7">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J7">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>7.305808351833778</v>
+        <v>5.473552353620779</v>
       </c>
       <c r="R7">
-        <v>65.75227516650401</v>
+        <v>49.261971182587</v>
       </c>
       <c r="S7">
-        <v>0.005601371281720848</v>
+        <v>0.004047220284975329</v>
       </c>
       <c r="T7">
-        <v>0.005601371281720848</v>
+        <v>0.004047220284975329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>38.891698</v>
       </c>
       <c r="I8">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J8">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>27.12426718523844</v>
+        <v>95.3992523275071</v>
       </c>
       <c r="R8">
-        <v>244.118404667146</v>
+        <v>858.593270947564</v>
       </c>
       <c r="S8">
-        <v>0.02079620542071599</v>
+        <v>0.07053952611524006</v>
       </c>
       <c r="T8">
-        <v>0.020796205420716</v>
+        <v>0.07053952611524007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>38.891698</v>
       </c>
       <c r="I9">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J9">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>31.99963969922311</v>
@@ -1013,10 +1013,10 @@
         <v>287.996757293008</v>
       </c>
       <c r="S9">
-        <v>0.02453415887807302</v>
+        <v>0.02366097600526767</v>
       </c>
       <c r="T9">
-        <v>0.02453415887807302</v>
+        <v>0.02366097600526767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>38.891698</v>
       </c>
       <c r="I10">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J10">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>4.095749535876666</v>
+        <v>5.48588574658911</v>
       </c>
       <c r="R10">
-        <v>36.86174582289</v>
+        <v>49.37297171930199</v>
       </c>
       <c r="S10">
-        <v>0.003140215664379233</v>
+        <v>0.004056339766251686</v>
       </c>
       <c r="T10">
-        <v>0.003140215664379233</v>
+        <v>0.004056339766251686</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>38.891698</v>
       </c>
       <c r="I11">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J11">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>3.397613307678222</v>
+        <v>1.731536178356</v>
       </c>
       <c r="R11">
-        <v>30.578519769104</v>
+        <v>15.583825605204</v>
       </c>
       <c r="S11">
-        <v>0.002604953851991542</v>
+        <v>0.001280321789664677</v>
       </c>
       <c r="T11">
-        <v>0.002604953851991542</v>
+        <v>0.001280321789664677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>38.891698</v>
       </c>
       <c r="I12">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J12">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>146.3855769975426</v>
+        <v>104.9193479798375</v>
       </c>
       <c r="R12">
-        <v>1317.470192977884</v>
+        <v>944.274131818538</v>
       </c>
       <c r="S12">
-        <v>0.1122339825471003</v>
+        <v>0.07757881646084706</v>
       </c>
       <c r="T12">
-        <v>0.1122339825471003</v>
+        <v>0.07757881646084706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>38.891698</v>
       </c>
       <c r="I13">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J13">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>6.100374574989111</v>
+        <v>2.487439541983778</v>
       </c>
       <c r="R13">
-        <v>54.903371174902</v>
+        <v>22.386955877854</v>
       </c>
       <c r="S13">
-        <v>0.004677163882010011</v>
+        <v>0.00183924718748821</v>
       </c>
       <c r="T13">
-        <v>0.004677163882010011</v>
+        <v>0.00183924718748821</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H14">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I14">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J14">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>15.23446449595978</v>
+        <v>10.01918975849489</v>
       </c>
       <c r="R14">
-        <v>137.110180463638</v>
+        <v>90.17270782645399</v>
       </c>
       <c r="S14">
-        <v>0.0116802806493885</v>
+        <v>0.007408327427940588</v>
       </c>
       <c r="T14">
-        <v>0.0116802806493885</v>
+        <v>0.007408327427940589</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H15">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I15">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J15">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>17.97273900718044</v>
+        <v>3.360723009120889</v>
       </c>
       <c r="R15">
-        <v>161.754651064624</v>
+        <v>30.246507082088</v>
       </c>
       <c r="S15">
-        <v>0.01377971872248957</v>
+        <v>0.002484965056687524</v>
       </c>
       <c r="T15">
-        <v>0.01377971872248957</v>
+        <v>0.002484965056687524</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H16">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I16">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J16">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>2.300395821296667</v>
+        <v>0.5761484387718888</v>
       </c>
       <c r="R16">
-        <v>20.70356239167</v>
+        <v>5.185335948946999</v>
       </c>
       <c r="S16">
-        <v>0.001763716000949783</v>
+        <v>0.0004260121211797598</v>
       </c>
       <c r="T16">
-        <v>0.001763716000949783</v>
+        <v>0.0004260121211797599</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H17">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I17">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J17">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>1.908284524456889</v>
+        <v>0.181852468666</v>
       </c>
       <c r="R17">
-        <v>17.174560720112</v>
+        <v>1.636672217994</v>
       </c>
       <c r="S17">
-        <v>0.001463083839307415</v>
+        <v>0.0001344642295366026</v>
       </c>
       <c r="T17">
-        <v>0.001463083839307415</v>
+        <v>0.0001344642295366026</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H18">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I18">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J18">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>82.21810603249467</v>
+        <v>11.01902615692144</v>
       </c>
       <c r="R18">
-        <v>739.962954292452</v>
+        <v>99.17123541229299</v>
       </c>
       <c r="S18">
-        <v>0.06303671213224474</v>
+        <v>0.008147620284195415</v>
       </c>
       <c r="T18">
-        <v>0.06303671213224474</v>
+        <v>0.008147620284195415</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H19">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I19">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J19">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>3.426302330678445</v>
+        <v>0.2612402946132222</v>
       </c>
       <c r="R19">
-        <v>30.836720976106</v>
+        <v>2.351162651519</v>
       </c>
       <c r="S19">
-        <v>0.002626949757412977</v>
+        <v>0.0001931646856199626</v>
       </c>
       <c r="T19">
-        <v>0.002626949757412978</v>
+        <v>0.0001931646856199626</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H20">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I20">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J20">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>64.18451542276533</v>
+        <v>153.6406341484942</v>
       </c>
       <c r="R20">
-        <v>577.6606388048881</v>
+        <v>1382.765707336448</v>
       </c>
       <c r="S20">
-        <v>0.04921033841929425</v>
+        <v>0.1136040090510734</v>
       </c>
       <c r="T20">
-        <v>0.04921033841929426</v>
+        <v>0.1136040090510734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H21">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I21">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J21">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>75.72117446606933</v>
+        <v>51.53546611700622</v>
       </c>
       <c r="R21">
-        <v>681.4905701946241</v>
+        <v>463.819195053056</v>
       </c>
       <c r="S21">
-        <v>0.05805550756966597</v>
+        <v>0.03810603615153745</v>
       </c>
       <c r="T21">
-        <v>0.05805550756966597</v>
+        <v>0.03810603615153747</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H22">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I22">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J22">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>9.69182678588</v>
+        <v>8.835026946318221</v>
       </c>
       <c r="R22">
-        <v>87.22644107292</v>
+        <v>79.51524251686401</v>
       </c>
       <c r="S22">
-        <v>0.007430734233839407</v>
+        <v>0.00653274107295039</v>
       </c>
       <c r="T22">
-        <v>0.007430734233839407</v>
+        <v>0.006532741072950393</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H23">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I23">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J23">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>8.039817712234667</v>
+        <v>2.788641524992</v>
       </c>
       <c r="R23">
-        <v>72.358359410112</v>
+        <v>25.097773724928</v>
       </c>
       <c r="S23">
-        <v>0.006164137063940121</v>
+        <v>0.002061960097998561</v>
       </c>
       <c r="T23">
-        <v>0.006164137063940121</v>
+        <v>0.002061960097998562</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H24">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I24">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J24">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>346.394144413328</v>
+        <v>168.9727619953351</v>
       </c>
       <c r="R24">
-        <v>3117.547299719952</v>
+        <v>1520.754857958016</v>
       </c>
       <c r="S24">
-        <v>0.265580770700899</v>
+        <v>0.1249407963556694</v>
       </c>
       <c r="T24">
-        <v>0.265580770700899</v>
+        <v>0.1249407963556694</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H25">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I25">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J25">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>14.43539776831734</v>
+        <v>4.006024987747556</v>
       </c>
       <c r="R25">
-        <v>129.918579914856</v>
+        <v>36.054224889728</v>
       </c>
       <c r="S25">
-        <v>0.01106763531230248</v>
+        <v>0.002962110261319563</v>
       </c>
       <c r="T25">
-        <v>0.01106763531230249</v>
+        <v>0.002962110261319563</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H26">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I26">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J26">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>2.875650767518</v>
+        <v>12.53372232932</v>
       </c>
       <c r="R26">
-        <v>25.880856907662</v>
+        <v>112.80350096388</v>
       </c>
       <c r="S26">
-        <v>0.002204764599579291</v>
+        <v>0.009267607575529297</v>
       </c>
       <c r="T26">
-        <v>0.002204764599579291</v>
+        <v>0.009267607575529297</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H27">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I27">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J27">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>3.392526250864</v>
+        <v>4.20416920304</v>
       </c>
       <c r="R27">
-        <v>30.532736257776</v>
+        <v>37.83752282736</v>
       </c>
       <c r="S27">
-        <v>0.002601053599948862</v>
+        <v>0.003108620833553628</v>
       </c>
       <c r="T27">
-        <v>0.002601053599948861</v>
+        <v>0.003108620833553629</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H28">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I28">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J28">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.43422169587</v>
+        <v>0.72074536226</v>
       </c>
       <c r="R28">
-        <v>3.90799526283</v>
+        <v>6.486708260339999</v>
       </c>
       <c r="S28">
-        <v>0.0003329182507964152</v>
+        <v>0.0005329290855345424</v>
       </c>
       <c r="T28">
-        <v>0.0003329182507964151</v>
+        <v>0.0005329290855345425</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H29">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I29">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J29">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.360206941232</v>
+        <v>0.22749228252</v>
       </c>
       <c r="R29">
-        <v>3.241862471088</v>
+        <v>2.04743054268</v>
       </c>
       <c r="S29">
-        <v>0.000276171057181783</v>
+        <v>0.0001682109388944143</v>
       </c>
       <c r="T29">
-        <v>0.000276171057181783</v>
+        <v>0.0001682109388944143</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H30">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I30">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J30">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>15.519453261972</v>
+        <v>13.78448931694</v>
       </c>
       <c r="R30">
-        <v>139.675079357748</v>
+        <v>124.06040385246</v>
       </c>
       <c r="S30">
-        <v>0.01189878184907481</v>
+        <v>0.01019244197867966</v>
       </c>
       <c r="T30">
-        <v>0.01189878184907481</v>
+        <v>0.01019244197867966</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H31">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I31">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J31">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.646747309666</v>
+        <v>0.32680420202</v>
       </c>
       <c r="R31">
-        <v>5.820725786994</v>
+        <v>2.94123781818</v>
       </c>
       <c r="S31">
-        <v>0.0004958618721478031</v>
+        <v>0.0002416435452116543</v>
       </c>
       <c r="T31">
-        <v>0.000495861872147803</v>
+        <v>0.0002416435452116543</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H32">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I32">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J32">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>19.56385392529334</v>
+        <v>51.57344183614244</v>
       </c>
       <c r="R32">
-        <v>176.07468532764</v>
+        <v>464.160976525282</v>
       </c>
       <c r="S32">
-        <v>0.01499962827650876</v>
+        <v>0.03813411592330084</v>
       </c>
       <c r="T32">
-        <v>0.01499962827650876</v>
+        <v>0.03813411592330085</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H33">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I33">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J33">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>23.08030194741334</v>
+        <v>17.29920850050044</v>
       </c>
       <c r="R33">
-        <v>207.72271752672</v>
+        <v>155.692876504504</v>
       </c>
       <c r="S33">
-        <v>0.0176956928344879</v>
+        <v>0.012791273935825</v>
       </c>
       <c r="T33">
-        <v>0.01769569283448789</v>
+        <v>0.012791273935825</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H34">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I34">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J34">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>2.954131261400001</v>
+        <v>2.965704683933444</v>
       </c>
       <c r="R34">
-        <v>26.5871813526</v>
+        <v>26.691342155401</v>
       </c>
       <c r="S34">
-        <v>0.002264935680373597</v>
+        <v>0.002192883045710129</v>
       </c>
       <c r="T34">
-        <v>0.002264935680373597</v>
+        <v>0.00219288304571013</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H35">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I35">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J35">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>2.450588249706667</v>
+        <v>0.9360794576779998</v>
       </c>
       <c r="R35">
-        <v>22.05529424736</v>
+        <v>8.424715119101998</v>
       </c>
       <c r="S35">
-        <v>0.001878868700652961</v>
+        <v>0.0006921500927924775</v>
       </c>
       <c r="T35">
-        <v>0.001878868700652961</v>
+        <v>0.0006921500927924776</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H36">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I36">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J36">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>105.58316748584</v>
+        <v>56.72006602261321</v>
       </c>
       <c r="R36">
-        <v>950.24850737256</v>
+        <v>510.4805942035189</v>
       </c>
       <c r="S36">
-        <v>0.08095073039246382</v>
+        <v>0.04193960100153351</v>
       </c>
       <c r="T36">
-        <v>0.08095073039246381</v>
+        <v>0.04193960100153352</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H37">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I37">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J37">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>4.400002265853334</v>
+        <v>1.344725617964111</v>
       </c>
       <c r="R37">
-        <v>39.60002039268</v>
+        <v>12.102530561677</v>
       </c>
       <c r="S37">
-        <v>0.003373486566379927</v>
+        <v>0.0009943087134537342</v>
       </c>
       <c r="T37">
-        <v>0.003373486566379927</v>
+        <v>0.0009943087134537342</v>
       </c>
     </row>
   </sheetData>
